--- a/GMA/111B_Lab_Voltage_variation.xlsx
+++ b/GMA/111B_Lab_Voltage_variation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Desktop/111/GMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC663FE6-A278-8E42-BBFB-73305DB4A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FDA0B-D516-4B4A-875B-63FD0A02ED6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{4C70592E-A979-F447-B463-B931A4256EFA}"/>
   </bookViews>
@@ -5204,7 +5204,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7431,7 +7431,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
